--- a/biology/Botanique/Marguerite_blanche/Marguerite_blanche.xlsx
+++ b/biology/Botanique/Marguerite_blanche/Marguerite_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leucanthemum vulgare
 La Marguerite ou Marguerite commune (Leucanthemum vulgare) est une espèce de plantes à fleurs de la famille des Asteraceae.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chrysanthemum leucanthemum L.
 Chrysanthemum leucanthemum var. pinnatifidum Lecoq &amp; Lamotte.
@@ -544,9 +558,11 @@
           <t>Description de la marguerite</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante herbacée vivace en touffe, à tige érigée, ridée, aux feuilles basales pétiolées, et aux caulinaires engainantes crénelées (alors que celles de la pâquerette ont 4 à 7 dents par côté). Les inflorescences sont de grands capitules aux ligules blanches autour du centre jaune, lui-même composé de nombreuses petites fleurs sessiles ou fleurons[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée vivace en touffe, à tige érigée, ridée, aux feuilles basales pétiolées, et aux caulinaires engainantes crénelées (alors que celles de la pâquerette ont 4 à 7 dents par côté). Les inflorescences sont de grands capitules aux ligules blanches autour du centre jaune, lui-même composé de nombreuses petites fleurs sessiles ou fleurons,.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se rencontre dans les prés, accotements, bois clairs, sur substrat calcaire à légèrement acide.
 C'est une plante très commune dans toute l'Europe jusque dans les régions septentrionales sauf au Spitzberg.
@@ -607,7 +625,9 @@
           <t>Culture de la marguerite</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On multiplie la marguerite par semis en mars-avril ou par division de la touffe à la même époque ou en fin de floraison.
 Elle aime une terre ordinaire, même pauvre et bien drainée.
@@ -646,10 +666,12 @@
           <t>Ennemis et maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La Marguerite est très rustique et peut supporter un stress hydrique.
-La Mouche de la Marguerite est inféodée à cette Marguerite ; ses larves se nourrissant des graines en formation, dans le capitule[3].
+La Mouche de la Marguerite est inféodée à cette Marguerite ; ses larves se nourrissant des graines en formation, dans le capitule.
 </t>
         </is>
       </c>
@@ -678,11 +700,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En cuisine, la racine était consommée crue en salade au XVIIe siècle en Espagne. Les jeunes pousses et les feuilles fraîches de marguerite, au goût aromatique légèrement poivré et peu sucré, se consomment crues en salade ou cuites en légume. Le bouton floral se consomme cru ou comme des câpres[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En cuisine, la racine était consommée crue en salade au XVIIe siècle en Espagne. Les jeunes pousses et les feuilles fraîches de marguerite, au goût aromatique légèrement poivré et peu sucré, se consomment crues en salade ou cuites en légume. Le bouton floral se consomme cru ou comme des câpres.
 En phytothérapie, on utilise les fleurs séchées en infusion.
-La marguerite possède des propriétés antispasmodiques, calmantes, digestives, astringente tout comme la camomille qui est de la même famille. Dans certaines régions elle faisait partie des herbes de la Saint-Jean[5].
+La marguerite possède des propriétés antispasmodiques, calmantes, digestives, astringente tout comme la camomille qui est de la même famille. Dans certaines régions elle faisait partie des herbes de la Saint-Jean.
 La marguerite est également utilisée, comme la pâquerette, dans le jeu d'effeuillage de la marguerite.
 </t>
         </is>
@@ -712,9 +736,11 @@
           <t>Langage des fleurs</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le langage des fleurs, la marguerite symbolise la bienveillance[6].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, la marguerite symbolise la bienveillance.
 </t>
         </is>
       </c>
@@ -743,7 +769,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			sous la pluie du Nord, France
